--- a/Code/Results/Cases/Case_9_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.401098099373769</v>
+        <v>3.407926130789974</v>
       </c>
       <c r="C2">
-        <v>0.9386781863048554</v>
+        <v>1.079653312925586</v>
       </c>
       <c r="D2">
-        <v>0.1333823061046502</v>
+        <v>0.1576871240424396</v>
       </c>
       <c r="E2">
-        <v>0.1705331518383844</v>
+        <v>0.1788117137566942</v>
       </c>
       <c r="F2">
-        <v>1.430136580104957</v>
+        <v>1.235532618190831</v>
       </c>
       <c r="G2">
-        <v>1.055283471959854</v>
+        <v>0.8408611504856793</v>
       </c>
       <c r="H2">
-        <v>6.58672278541772E-06</v>
+        <v>2.537893413068204E-05</v>
       </c>
       <c r="I2">
-        <v>0.0006379172798038901</v>
+        <v>0.0005622745528999218</v>
       </c>
       <c r="J2">
-        <v>0.6797195331176766</v>
+        <v>0.615971329779299</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2412199745775041</v>
+        <v>0.1973805539337441</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1098095634170129</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2374340510155903</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960581770813462</v>
+        <v>2.967983415052004</v>
       </c>
       <c r="C3">
-        <v>0.8187014239619543</v>
+        <v>0.9327833842577888</v>
       </c>
       <c r="D3">
-        <v>0.1176646971441215</v>
+        <v>0.1383127378301623</v>
       </c>
       <c r="E3">
-        <v>0.1503149238409875</v>
+        <v>0.157800979213885</v>
       </c>
       <c r="F3">
-        <v>1.32054728782164</v>
+        <v>1.154660108746967</v>
       </c>
       <c r="G3">
-        <v>0.9708164940452946</v>
+        <v>0.786440728004024</v>
       </c>
       <c r="H3">
-        <v>0.0002923168502122486</v>
+        <v>0.0001728786701482576</v>
       </c>
       <c r="I3">
-        <v>0.001546476244843831</v>
+        <v>0.0009864864255244576</v>
       </c>
       <c r="J3">
-        <v>0.6456858208775742</v>
+        <v>0.5909733102734833</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2125420622512308</v>
+        <v>0.2021717426141052</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1063988060444423</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2102181638988085</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.690338489419617</v>
+        <v>2.697751735510678</v>
       </c>
       <c r="C4">
-        <v>0.7457609685623368</v>
+        <v>0.8436091828274073</v>
       </c>
       <c r="D4">
-        <v>0.1081228502669092</v>
+        <v>0.126560960684813</v>
       </c>
       <c r="E4">
-        <v>0.1379665108782184</v>
+        <v>0.1449609707854265</v>
       </c>
       <c r="F4">
-        <v>1.253908858087257</v>
+        <v>1.105311533582125</v>
       </c>
       <c r="G4">
-        <v>0.9195522479731579</v>
+        <v>0.7535512868512768</v>
       </c>
       <c r="H4">
-        <v>0.0008741906896352347</v>
+        <v>0.0006097607861312859</v>
       </c>
       <c r="I4">
-        <v>0.002544927890090865</v>
+        <v>0.001580617154953501</v>
       </c>
       <c r="J4">
-        <v>0.6251729904333274</v>
+        <v>0.5755565223646926</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.194973373478426</v>
+        <v>0.2050546896905203</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1050159317430843</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1935130569184196</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.580219143539978</v>
+        <v>2.587558800409056</v>
       </c>
       <c r="C5">
-        <v>0.7177753309364334</v>
+        <v>0.8089718931265679</v>
       </c>
       <c r="D5">
-        <v>0.1044990084807367</v>
+        <v>0.1220281415317999</v>
       </c>
       <c r="E5">
-        <v>0.1330191178409486</v>
+        <v>0.1398038125598404</v>
       </c>
       <c r="F5">
-        <v>1.224736943943412</v>
+        <v>1.08353334935768</v>
       </c>
       <c r="G5">
-        <v>0.896628966739712</v>
+        <v>0.7385813903832172</v>
       </c>
       <c r="H5">
-        <v>0.001209143328286144</v>
+        <v>0.0008711120749897994</v>
       </c>
       <c r="I5">
-        <v>0.003131047987655844</v>
+        <v>0.001987758532433048</v>
       </c>
       <c r="J5">
-        <v>0.6157895707653864</v>
+        <v>0.5683606388826661</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1877555954900814</v>
+        <v>0.2057700953263932</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1043469848050442</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1866487866978801</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.561912905995086</v>
+        <v>2.569233910466153</v>
       </c>
       <c r="C6">
-        <v>0.7150674717967433</v>
+        <v>0.8050337726235171</v>
       </c>
       <c r="D6">
-        <v>0.1041927598256081</v>
+        <v>0.1215502098559398</v>
       </c>
       <c r="E6">
-        <v>0.1322860569956354</v>
+        <v>0.1390252582815776</v>
       </c>
       <c r="F6">
-        <v>1.217265770470448</v>
+        <v>1.077809050610227</v>
       </c>
       <c r="G6">
-        <v>0.8901900679314565</v>
+        <v>0.7340522222052925</v>
       </c>
       <c r="H6">
-        <v>0.001272429465769331</v>
+        <v>0.000920803730181996</v>
       </c>
       <c r="I6">
-        <v>0.003334078664313012</v>
+        <v>0.002174405803176072</v>
       </c>
       <c r="J6">
-        <v>0.6128796272869721</v>
+        <v>0.5660747769105114</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1864796200918377</v>
+        <v>0.2053475743955175</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1039049311200717</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1854422979130845</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.688789835815555</v>
+        <v>2.696162630222489</v>
       </c>
       <c r="C7">
-        <v>0.7506648166472019</v>
+        <v>0.8474337603936135</v>
       </c>
       <c r="D7">
-        <v>0.1088781813505761</v>
+        <v>0.1276713834098757</v>
       </c>
       <c r="E7">
-        <v>0.138140045080906</v>
+        <v>0.1452179886271168</v>
       </c>
       <c r="F7">
-        <v>1.246308819105749</v>
+        <v>1.095996302944101</v>
       </c>
       <c r="G7">
-        <v>0.9120210076964099</v>
+        <v>0.7503813424341956</v>
       </c>
       <c r="H7">
-        <v>0.0008827532571047403</v>
+        <v>0.000618747392452379</v>
       </c>
       <c r="I7">
-        <v>0.002806515502380869</v>
+        <v>0.00188237115447798</v>
       </c>
       <c r="J7">
-        <v>0.6213380373243211</v>
+        <v>0.5647374146141289</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.194663205130901</v>
+        <v>0.2030019864939128</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1036392170228844</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1931273105427351</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.249032429620911</v>
+        <v>3.255996634783514</v>
       </c>
       <c r="C8">
-        <v>0.9042042366294538</v>
+        <v>1.033243934274481</v>
       </c>
       <c r="D8">
-        <v>0.1290109347628885</v>
+        <v>0.1534088235308246</v>
       </c>
       <c r="E8">
-        <v>0.1638671737811848</v>
+        <v>0.1722242909874936</v>
       </c>
       <c r="F8">
-        <v>1.382638242255027</v>
+        <v>1.189212354034737</v>
       </c>
       <c r="G8">
-        <v>1.016432492479069</v>
+        <v>0.823438160486603</v>
       </c>
       <c r="H8">
-        <v>1.786779235191105E-05</v>
+        <v>1.957905773064539E-06</v>
       </c>
       <c r="I8">
-        <v>0.001150347817463704</v>
+        <v>0.0009857751625759192</v>
       </c>
       <c r="J8">
-        <v>0.6629904202872723</v>
+        <v>0.5780581114971568</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2310354848289577</v>
+        <v>0.1954147375964048</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1056563850504268</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2274325714595449</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.351433023299705</v>
+        <v>4.354568522753596</v>
       </c>
       <c r="C9">
-        <v>1.202349685128752</v>
+        <v>1.399809507647149</v>
       </c>
       <c r="D9">
-        <v>0.1680284173638569</v>
+        <v>0.2022428889947747</v>
       </c>
       <c r="E9">
-        <v>0.2145703897035176</v>
+        <v>0.2250038020608045</v>
       </c>
       <c r="F9">
-        <v>1.6692307986293</v>
+        <v>1.397356837766679</v>
       </c>
       <c r="G9">
-        <v>1.24001172288169</v>
+        <v>0.9722635193847537</v>
       </c>
       <c r="H9">
-        <v>0.001835564254199173</v>
+        <v>0.00176576003507467</v>
       </c>
       <c r="I9">
-        <v>0.001371822253992683</v>
+        <v>0.001675242397638499</v>
       </c>
       <c r="J9">
-        <v>0.7548541527426664</v>
+        <v>0.6366919134364508</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3032997144343028</v>
+        <v>0.1846572577695511</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1188332087159303</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2956666537614865</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.165382601812553</v>
+        <v>5.16292397410831</v>
       </c>
       <c r="C10">
-        <v>1.428674344593389</v>
+        <v>1.669038217006403</v>
       </c>
       <c r="D10">
-        <v>0.1944672732384873</v>
+        <v>0.2375551785371783</v>
       </c>
       <c r="E10">
-        <v>0.2434589903723534</v>
+        <v>0.2555884261189618</v>
       </c>
       <c r="F10">
-        <v>1.841545984384496</v>
+        <v>1.501187867652916</v>
       </c>
       <c r="G10">
-        <v>1.373658745197673</v>
+        <v>1.076256574006322</v>
       </c>
       <c r="H10">
-        <v>0.005662217481302356</v>
+        <v>0.005140220512930949</v>
       </c>
       <c r="I10">
-        <v>0.004411529444046103</v>
+        <v>0.004358052096517184</v>
       </c>
       <c r="J10">
-        <v>0.8072399097042364</v>
+        <v>0.6243789830263609</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3407382350838333</v>
+        <v>0.1701892389839728</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.125239242168476</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3296846744703856</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.52977853150378</v>
+        <v>5.52475289103694</v>
       </c>
       <c r="C11">
-        <v>1.535592219747116</v>
+        <v>1.747249388388013</v>
       </c>
       <c r="D11">
-        <v>0.1788270359898405</v>
+        <v>0.2206680198905673</v>
       </c>
       <c r="E11">
-        <v>0.1840891560397253</v>
+        <v>0.1942111421184762</v>
       </c>
       <c r="F11">
-        <v>1.574767908560815</v>
+        <v>1.255631887435484</v>
       </c>
       <c r="G11">
-        <v>1.157056209324452</v>
+        <v>0.9470171035064823</v>
       </c>
       <c r="H11">
-        <v>0.02435847066213626</v>
+        <v>0.02369689396521935</v>
       </c>
       <c r="I11">
-        <v>0.006086522121681703</v>
+        <v>0.005869240907092177</v>
       </c>
       <c r="J11">
-        <v>0.6915033688069059</v>
+        <v>0.4649219680913177</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.232501257019301</v>
+        <v>0.134347608351522</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09310645969967268</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2228263210277035</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.665127187084238</v>
+        <v>5.659472787021969</v>
       </c>
       <c r="C12">
-        <v>1.569030097946211</v>
+        <v>1.74923085587119</v>
       </c>
       <c r="D12">
-        <v>0.159576811842868</v>
+        <v>0.1969992762463164</v>
       </c>
       <c r="E12">
-        <v>0.1362615259953976</v>
+        <v>0.1440509168538142</v>
       </c>
       <c r="F12">
-        <v>1.341164538643682</v>
+        <v>1.061679553939257</v>
       </c>
       <c r="G12">
-        <v>0.971701463530863</v>
+        <v>0.8216043874125063</v>
       </c>
       <c r="H12">
-        <v>0.06257125349541326</v>
+        <v>0.06191982555252906</v>
       </c>
       <c r="I12">
-        <v>0.006299995402970104</v>
+        <v>0.006015853048705111</v>
       </c>
       <c r="J12">
-        <v>0.5953083205605481</v>
+        <v>0.3759296190822994</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1550313492644761</v>
+        <v>0.1143052626813823</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07115306705871305</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1474560529149755</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.63037830060631</v>
+        <v>5.625802211586063</v>
       </c>
       <c r="C13">
-        <v>1.555946613837477</v>
+        <v>1.702410127755627</v>
       </c>
       <c r="D13">
-        <v>0.1378292309196922</v>
+        <v>0.1675596440997253</v>
       </c>
       <c r="E13">
-        <v>0.09520759153220126</v>
+        <v>0.1003263032382513</v>
       </c>
       <c r="F13">
-        <v>1.109138817599799</v>
+        <v>0.8904012254687643</v>
       </c>
       <c r="G13">
-        <v>0.7887675726523042</v>
+        <v>0.6794093265161649</v>
       </c>
       <c r="H13">
-        <v>0.1173731346560061</v>
+        <v>0.1168529213225611</v>
       </c>
       <c r="I13">
-        <v>0.005653846890292691</v>
+        <v>0.005488049995857835</v>
       </c>
       <c r="J13">
-        <v>0.5029063861773153</v>
+        <v>0.3310752876078027</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.09679638419098069</v>
+        <v>0.1020365570476969</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05444427855661971</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09182599706582195</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.529128490058838</v>
+        <v>5.525989113654589</v>
       </c>
       <c r="C14">
-        <v>1.527520987215894</v>
+        <v>1.649233887378671</v>
       </c>
       <c r="D14">
-        <v>0.1219442739895555</v>
+        <v>0.1452779761791021</v>
       </c>
       <c r="E14">
-        <v>0.07102404808287055</v>
+        <v>0.07435870680633627</v>
       </c>
       <c r="F14">
-        <v>0.9496695367624568</v>
+        <v>0.7796367237676236</v>
       </c>
       <c r="G14">
-        <v>0.6633807832555902</v>
+        <v>0.5751055521377708</v>
       </c>
       <c r="H14">
-        <v>0.1659188761369421</v>
+        <v>0.1655258736442988</v>
       </c>
       <c r="I14">
-        <v>0.004949824371781375</v>
+        <v>0.004945263050152526</v>
       </c>
       <c r="J14">
-        <v>0.4406010797771955</v>
+        <v>0.3143673821291912</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.067930519913034</v>
+        <v>0.0962626066671266</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04509788089299249</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06474058358715951</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.468203489286168</v>
+        <v>5.465741862307993</v>
       </c>
       <c r="C15">
-        <v>1.512982895943935</v>
+        <v>1.628012863194954</v>
       </c>
       <c r="D15">
-        <v>0.1177182850291132</v>
+        <v>0.1389764045545263</v>
       </c>
       <c r="E15">
-        <v>0.0655457928662706</v>
+        <v>0.0684325041110565</v>
       </c>
       <c r="F15">
-        <v>0.9074679903252587</v>
+        <v>0.7530540124934433</v>
       </c>
       <c r="G15">
-        <v>0.6298992442820719</v>
+        <v>0.5449978894617971</v>
       </c>
       <c r="H15">
-        <v>0.1781007688638852</v>
+        <v>0.177759996166472</v>
       </c>
       <c r="I15">
-        <v>0.004726196810557859</v>
+        <v>0.004812682448166683</v>
       </c>
       <c r="J15">
-        <v>0.424505934035821</v>
+        <v>0.3152659675769058</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.0622717534682895</v>
+        <v>0.09549516705534433</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04319902701244693</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05956722297574757</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.123343719348156</v>
+        <v>5.123847471349166</v>
       </c>
       <c r="C16">
-        <v>1.421049761599022</v>
+        <v>1.531492158624644</v>
       </c>
       <c r="D16">
-        <v>0.1117771422014968</v>
+        <v>0.128286151333981</v>
       </c>
       <c r="E16">
-        <v>0.0630434899495107</v>
+        <v>0.06553087170951777</v>
       </c>
       <c r="F16">
-        <v>0.8820738889618269</v>
+        <v>0.7609995097966475</v>
       </c>
       <c r="G16">
-        <v>0.6095520157798546</v>
+        <v>0.5105497268971959</v>
       </c>
       <c r="H16">
-        <v>0.1639623446621812</v>
+        <v>0.163816123081304</v>
       </c>
       <c r="I16">
-        <v>0.003462266173566597</v>
+        <v>0.003817484813845695</v>
       </c>
       <c r="J16">
-        <v>0.4202741039114528</v>
+        <v>0.3646679786834142</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.06033204678394988</v>
+        <v>0.1019778602640606</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04675942792901466</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05848454926372781</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.913394211356433</v>
+        <v>4.915253467255297</v>
       </c>
       <c r="C17">
-        <v>1.366085346737464</v>
+        <v>1.484956931582019</v>
       </c>
       <c r="D17">
-        <v>0.1155259169349705</v>
+        <v>0.1319195395232242</v>
       </c>
       <c r="E17">
-        <v>0.07294218058064672</v>
+        <v>0.07591256597359219</v>
       </c>
       <c r="F17">
-        <v>0.9445439004742155</v>
+        <v>0.8230935683719167</v>
       </c>
       <c r="G17">
-        <v>0.6582853588607804</v>
+        <v>0.5396892365951658</v>
       </c>
       <c r="H17">
-        <v>0.1255556790160455</v>
+        <v>0.1254793620759074</v>
       </c>
       <c r="I17">
-        <v>0.002946723740809176</v>
+        <v>0.003399548643709949</v>
       </c>
       <c r="J17">
-        <v>0.4491153349418227</v>
+        <v>0.4101264995976237</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07182897743834005</v>
+        <v>0.1106848756541847</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05397280908434787</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06990730387082777</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.794722445135847</v>
+        <v>4.797007124625509</v>
       </c>
       <c r="C18">
-        <v>1.331577697788987</v>
+        <v>1.472684268581702</v>
       </c>
       <c r="D18">
-        <v>0.1279710861917351</v>
+        <v>0.147636428876794</v>
       </c>
       <c r="E18">
-        <v>0.09894697177761813</v>
+        <v>0.1032537126112345</v>
       </c>
       <c r="F18">
-        <v>1.103200760121084</v>
+        <v>0.9545005253559395</v>
       </c>
       <c r="G18">
-        <v>0.784028902833839</v>
+        <v>0.6300303312799969</v>
       </c>
       <c r="H18">
-        <v>0.07267234378187482</v>
+        <v>0.07260757711626553</v>
       </c>
       <c r="I18">
-        <v>0.00257576424115058</v>
+        <v>0.003006195938637823</v>
       </c>
       <c r="J18">
-        <v>0.5156033057259179</v>
+        <v>0.4707609686361423</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1068875433955583</v>
+        <v>0.1248902113230095</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0675132052185301</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1040193433359278</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.757561048962543</v>
+        <v>4.759548171324695</v>
       </c>
       <c r="C19">
-        <v>1.326640898549499</v>
+        <v>1.498962498642015</v>
       </c>
       <c r="D19">
-        <v>0.1487007727020284</v>
+        <v>0.1742020551217536</v>
       </c>
       <c r="E19">
-        <v>0.1431855429031117</v>
+        <v>0.1496519070597842</v>
       </c>
       <c r="F19">
-        <v>1.33254026077023</v>
+        <v>1.136620996943932</v>
       </c>
       <c r="G19">
-        <v>0.9651730848275122</v>
+        <v>0.7618179563742444</v>
       </c>
       <c r="H19">
-        <v>0.02796757678090245</v>
+        <v>0.02786845046568232</v>
       </c>
       <c r="I19">
-        <v>0.002829001257594221</v>
+        <v>0.003269954053957136</v>
       </c>
       <c r="J19">
-        <v>0.6083664291960389</v>
+        <v>0.5427972824204232</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1744113320023928</v>
+        <v>0.1433262673978142</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08620658277026294</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1696826756198959</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.950834231615261</v>
+        <v>4.950306595625477</v>
       </c>
       <c r="C20">
-        <v>1.385898384485984</v>
+        <v>1.616257121228102</v>
       </c>
       <c r="D20">
-        <v>0.1898990824233096</v>
+        <v>0.2288606199791872</v>
       </c>
       <c r="E20">
-        <v>0.2362117928233616</v>
+        <v>0.2473684814996417</v>
       </c>
       <c r="F20">
-        <v>1.771767982994504</v>
+        <v>1.466454802827016</v>
       </c>
       <c r="G20">
-        <v>1.3143388784639</v>
+        <v>1.020812871780393</v>
       </c>
       <c r="H20">
-        <v>0.004425627411600797</v>
+        <v>0.004079506030183921</v>
       </c>
       <c r="I20">
-        <v>0.004102238117142498</v>
+        <v>0.00437973978767392</v>
       </c>
       <c r="J20">
-        <v>0.7811399262166958</v>
+        <v>0.6447689459161126</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.329506043449399</v>
+        <v>0.1721412292208946</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1214262157976975</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3198987074874822</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.579058796573747</v>
+        <v>5.57183159807397</v>
       </c>
       <c r="C21">
-        <v>1.55922871993738</v>
+        <v>1.817035370328938</v>
       </c>
       <c r="D21">
-        <v>0.2152686820356138</v>
+        <v>0.2716592025195155</v>
       </c>
       <c r="E21">
-        <v>0.2726602062368286</v>
+        <v>0.2881553557005887</v>
       </c>
       <c r="F21">
-        <v>1.973121916339792</v>
+        <v>1.538486030647718</v>
       </c>
       <c r="G21">
-        <v>1.473526938564561</v>
+        <v>1.19554325081387</v>
       </c>
       <c r="H21">
-        <v>0.008423522999810362</v>
+        <v>0.007408023344416148</v>
       </c>
       <c r="I21">
-        <v>0.007437179041954067</v>
+        <v>0.006999231451024102</v>
       </c>
       <c r="J21">
-        <v>0.8499144094273277</v>
+        <v>0.5260686020045284</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3837745836025306</v>
+        <v>0.1591953845378846</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1243635269842578</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3685398761070644</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.991246437698521</v>
+        <v>5.978820705023395</v>
       </c>
       <c r="C22">
-        <v>1.66640871818197</v>
+        <v>1.93909456686697</v>
       </c>
       <c r="D22">
-        <v>0.2292208640621283</v>
+        <v>0.2976034240858496</v>
       </c>
       <c r="E22">
-        <v>0.291702941106756</v>
+        <v>0.3101086584880264</v>
       </c>
       <c r="F22">
-        <v>2.095409171095326</v>
+        <v>1.572844654064127</v>
       </c>
       <c r="G22">
-        <v>1.572250120072823</v>
+        <v>1.313692062525888</v>
       </c>
       <c r="H22">
-        <v>0.0116230310740526</v>
+        <v>0.01003315267919287</v>
       </c>
       <c r="I22">
-        <v>0.01000435566849145</v>
+        <v>0.008810729252501481</v>
       </c>
       <c r="J22">
-        <v>0.8922638190172165</v>
+        <v>0.4479537067880983</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4115355395573488</v>
+        <v>0.1502677736302793</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.125693095085456</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3925143061182013</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.771222717622607</v>
+        <v>5.761777817652444</v>
       </c>
       <c r="C23">
-        <v>1.602565051803651</v>
+        <v>1.869537577760866</v>
       </c>
       <c r="D23">
-        <v>0.2207677662764524</v>
+        <v>0.2814779976532691</v>
       </c>
       <c r="E23">
-        <v>0.281223810638302</v>
+        <v>0.2977629593750777</v>
       </c>
       <c r="F23">
-        <v>2.038553896092054</v>
+        <v>1.569251303195671</v>
       </c>
       <c r="G23">
-        <v>1.527996677940621</v>
+        <v>1.249154500841144</v>
       </c>
       <c r="H23">
-        <v>0.009870239001963654</v>
+        <v>0.008613957168621289</v>
       </c>
       <c r="I23">
-        <v>0.008308133332938894</v>
+        <v>0.007487709989994151</v>
       </c>
       <c r="J23">
-        <v>0.87394592099173</v>
+        <v>0.5070824323970271</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3969598789810362</v>
+        <v>0.1571051730264728</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1275740337849669</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3802255536777182</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.941437102788996</v>
+        <v>4.940871594168357</v>
       </c>
       <c r="C24">
-        <v>1.37371247861455</v>
+        <v>1.607692650849174</v>
       </c>
       <c r="D24">
-        <v>0.1907052464087826</v>
+        <v>0.2304165694176703</v>
       </c>
       <c r="E24">
-        <v>0.2424147114853099</v>
+        <v>0.2539208121434555</v>
       </c>
       <c r="F24">
-        <v>1.813258302914775</v>
+        <v>1.499254160056481</v>
       </c>
       <c r="G24">
-        <v>1.350209780601176</v>
+        <v>1.046693609362492</v>
       </c>
       <c r="H24">
-        <v>0.004448106555723252</v>
+        <v>0.004090367603099776</v>
       </c>
       <c r="I24">
-        <v>0.003669920323200238</v>
+        <v>0.003843334140021248</v>
       </c>
       <c r="J24">
-        <v>0.7994369714832033</v>
+        <v>0.659529267347736</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3418471470049553</v>
+        <v>0.1767946358336907</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1262182714392566</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3318972066759329</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.052369914369706</v>
+        <v>4.057027455804473</v>
       </c>
       <c r="C25">
-        <v>1.130637871564886</v>
+        <v>1.309745183789403</v>
       </c>
       <c r="D25">
-        <v>0.1588327551578033</v>
+        <v>0.1896484870999728</v>
       </c>
       <c r="E25">
-        <v>0.2011999353214478</v>
+        <v>0.2108602971356532</v>
       </c>
       <c r="F25">
-        <v>1.577763807039233</v>
+        <v>1.334948375164359</v>
       </c>
       <c r="G25">
-        <v>1.165617487315032</v>
+        <v>0.9174929159475624</v>
       </c>
       <c r="H25">
-        <v>0.0009178861702479058</v>
+        <v>0.0009326302855494628</v>
       </c>
       <c r="I25">
-        <v>0.001251001567529997</v>
+        <v>0.00162728188045147</v>
       </c>
       <c r="J25">
-        <v>0.7228549803355122</v>
+        <v>0.6265232936883365</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2832600878616489</v>
+        <v>0.1862313730830962</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1133005304169252</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2769830068733796</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
